--- a/public/excel-files/product data.xlsx
+++ b/public/excel-files/product data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -53,19 +53,151 @@
     <t>availableStock</t>
   </si>
   <si>
-    <t>Dell MS116 Optical Mouse</t>
-  </si>
-  <si>
-    <t>Compatible with practically any system</t>
-  </si>
-  <si>
-    <t>Plug and play convenience</t>
-  </si>
-  <si>
-    <t>Connectivity Technology</t>
-  </si>
-  <si>
-    <t>Wired-USB</t>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>keyFeature</t>
+  </si>
+  <si>
+    <t>indexImage</t>
+  </si>
+  <si>
+    <t>extraImage</t>
+  </si>
+  <si>
+    <t>subCategoryName</t>
+  </si>
+  <si>
+    <t>categoryName</t>
+  </si>
+  <si>
+    <t>INTERNAL HARD DRDIVE 240 GB Laptop, Desktop Internal Solid State Drive (SSD240I-01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weight </t>
+  </si>
+  <si>
+    <t>40g</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>100 mm x 70 mm x 7 mm</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>SATA</t>
+  </si>
+  <si>
+    <t>Form Factor</t>
+  </si>
+  <si>
+    <t>2.5 inch</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>240 GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device </t>
+  </si>
+  <si>
+    <t>Laptop, Desktop</t>
+  </si>
+  <si>
+    <t>ssd240i-01.jpeg</t>
+  </si>
+  <si>
+    <t>WD Green SATA 2.5/7mm disque 240 GB Laptop, All in One PC's, Desktop Internal Solid State Drive (WDS240G2G0A)</t>
+  </si>
+  <si>
+    <t>Sequential Read Up: 545 MB/s, Maximum Read Operating: 2800 mW, Slumber: 25 mW, Reliability MTTF: Up to 1.0M hours, Non Operating Vibrations: 4.9 gRMS, 7 - 800 Hz, Certification: FCC, UL, TUV, KC, BSMI, VCCI, Weight: 32.2 g, +/- 0.5 g</t>
+  </si>
+  <si>
+    <t>SATA III</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Green SATA 2.5/7mm disque</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>WDS240G2G0A</t>
+  </si>
+  <si>
+    <t>wd-wds240g2g0a.jpeg</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>internal hard drive</t>
+  </si>
+  <si>
+    <t>Seagate Backup Plus Portable 4 TB External Hard Drive HDD - Black USB 3.0 for PC Laptop and Mac, 1 year Mylio Create, 4 Months Adobe CC Photography, and 3-year Rescue Services (STHP4000400)  (Black)</t>
+  </si>
+  <si>
+    <t>Great Capacity</t>
+  </si>
+  <si>
+    <t>The Seagate Hard Disk Drive comes with a generous 4 TB of space and it’s also travel-friendly.</t>
+  </si>
+  <si>
+    <t>Sleek Design</t>
+  </si>
+  <si>
+    <t>This HDD comes in a sleek and stylish aluminium body that complements your other sleek devices.</t>
+  </si>
+  <si>
+    <t>Apart from hourly, daily, weekly and monthly backups, the Seagate Toolkit implements on-demand backups as well.</t>
+  </si>
+  <si>
+    <t>User Friendly backup Software</t>
+  </si>
+  <si>
+    <t>Super Compatible</t>
+  </si>
+  <si>
+    <t>Without any reformatting, its USB 3.0 interface is compatible with, both, Windows and Mac OS.</t>
+  </si>
+  <si>
+    <t>sales package</t>
+  </si>
+  <si>
+    <t>1 Hard Drive, 46 cm USB 3.0 Cable, Quick Start Guide</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>STHP4000400</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>4 TB</t>
   </si>
   <si>
     <t xml:space="preserve">color </t>
@@ -74,119 +206,44 @@
     <t>black</t>
   </si>
   <si>
-    <t>Movement Detection Technology</t>
-  </si>
-  <si>
-    <t>optical</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>Hardware Platform</t>
-  </si>
-  <si>
-    <t>PC</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>86.02 g</t>
-  </si>
-  <si>
-    <t>boAt Rugged v3 Extra Tough Unbreakable Braided Micro USB Cable 1.5 Meter (Black)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boat </t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Rugged V3</t>
-  </si>
-  <si>
-    <t>Mounting Hardware</t>
-  </si>
-  <si>
-    <t>Data Cable</t>
-  </si>
-  <si>
-    <t>item weight</t>
-  </si>
-  <si>
-    <t>80 g</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>AmazonBasics Wired PC Computer Keyboard, 10-Pack</t>
-  </si>
-  <si>
-    <t>Low-profile Keys Provide a Quiet, Comfortable Typing Experience</t>
-  </si>
-  <si>
-    <t>Simple Wired USB Connection; Works with Windows 2000, XP, Vista, 7, 8, and 10</t>
-  </si>
-  <si>
-    <t>item height</t>
-  </si>
-  <si>
-    <t>1 inches</t>
-  </si>
-  <si>
-    <t>item width</t>
-  </si>
-  <si>
-    <t>5.57 inches</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>45.8 x 14.15 x 2.54 cm; 702.61 Grams</t>
-  </si>
-  <si>
-    <t>At your Fingertips</t>
-  </si>
-  <si>
-    <t>Frequently used functions are just one touch away. Access volume controls, mute, calculator, music, My Computer, video controls, and more. Full-number keypad makes basic calculations a breeze.</t>
-  </si>
-  <si>
-    <t>sellingPrice</t>
-  </si>
-  <si>
-    <t>keyFeature</t>
-  </si>
-  <si>
-    <t>indexImage</t>
-  </si>
-  <si>
-    <t>extraImage</t>
-  </si>
-  <si>
-    <t>1-1.jpeg</t>
-  </si>
-  <si>
-    <t>1-2.jpeg</t>
-  </si>
-  <si>
-    <t>1-3.jpeg</t>
-  </si>
-  <si>
-    <t>1-4.jpeg</t>
+    <t>Portable</t>
+  </si>
+  <si>
+    <t>Cloud Backup</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Data Transfer Rate is 120</t>
+  </si>
+  <si>
+    <t>No Password Protection</t>
+  </si>
+  <si>
+    <t>No External Power Required</t>
+  </si>
+  <si>
+    <t>Lite Weight</t>
+  </si>
+  <si>
+    <t>external hard drive</t>
+  </si>
+  <si>
+    <t>seagate-sthp4000400-1.jpeg</t>
+  </si>
+  <si>
+    <t>seagate-sthp4000400-2.jpeg</t>
+  </si>
+  <si>
+    <t>seagate-sthp4000400-3.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +288,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,13 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -270,6 +330,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,260 +652,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="4" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="19" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4999</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3">
+        <v>100</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="228" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3999</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="3">
+        <v>100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3">
+        <v>11999</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="3">
+        <v>100</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="D17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4">
-        <v>650</v>
-      </c>
-      <c r="G2" s="4">
-        <v>650</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="4">
-        <v>100</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="4">
-        <v>800</v>
-      </c>
-      <c r="G5" s="4">
-        <v>200</v>
-      </c>
-      <c r="I5" s="4">
-        <v>500</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="171" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="4">
-        <v>14000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>7000</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="E21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="4">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="3">
         <v>3</v>
       </c>
     </row>

--- a/public/excel-files/product data.xlsx
+++ b/public/excel-files/product data.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="192">
   <si>
     <t>name</t>
   </si>
@@ -237,6 +237,375 @@
   </si>
   <si>
     <t>seagate-sthp4000400-3.jpeg</t>
+  </si>
+  <si>
+    <t>Samsung T5 1 TB External Solid State Drive  (Black)</t>
+  </si>
+  <si>
+    <t>Experience a large storage space with speedy data transfer to your laptop, smartphone, and other devices. The T5 is designed to fit in your pocket so you can carry your entertainment, coursework, or games on the go.</t>
+  </si>
+  <si>
+    <t>Compact and Portable</t>
+  </si>
+  <si>
+    <t>With higher speed and stronger security than cloud storage, the T5 facilitates rapid transfer of large files like 4K videos, movies, graphic-intensive games, and many more. Transfer data at up to 540 MB/s, 4.9x faster than external HDDs, with Samsung's V-NAND flash memory and a USB 3.1 Gen 2 interface. Before that, make sure that the UASP mode is enabled.</t>
+  </si>
+  <si>
+    <t>Rapid Transfer Speed</t>
+  </si>
+  <si>
+    <t>Transfer your files while complementing your style. The T5 is designed with elegant side curves and a sleek casing.</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Weighing in at only 51 gms and 10.5 mm thick, the T5 is portable, and it's designed with complete metal construction and a rounded unibody to perfectly fit into the palm of your hand. It is about the size of a credit card and can be carried around with ease.</t>
+  </si>
+  <si>
+    <t>LightWeight</t>
+  </si>
+  <si>
+    <t>This sturdy and durable device with a metal body can withstand drops up to 2 meters. It also comes with optional password protection that keeps your data and personal information safe and secure.</t>
+  </si>
+  <si>
+    <t>Solid and Secure</t>
+  </si>
+  <si>
+    <t>external solid state drive</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>MU-PA1T0B/WW</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>1 TB</t>
+  </si>
+  <si>
+    <t>System Requirements</t>
+  </si>
+  <si>
+    <t>Windows 7, Mac OS X 10.9 (Mavericks), Android 4.4 (KitKat), or Higher</t>
+  </si>
+  <si>
+    <t>connector type</t>
+  </si>
+  <si>
+    <t>USB Type-C to A</t>
+  </si>
+  <si>
+    <t>AES 256-bit Hardware Encryption</t>
+  </si>
+  <si>
+    <t>Encryption</t>
+  </si>
+  <si>
+    <t>Data Transfer Rate</t>
+  </si>
+  <si>
+    <t>Upto 540 Mbps</t>
+  </si>
+  <si>
+    <t>Password Protection</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Shock Resistence</t>
+  </si>
+  <si>
+    <t>UASP Mode: Support, Multi-Device Compatibility, Security: Portable SSD Software</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>51g</t>
+  </si>
+  <si>
+    <t>74mm</t>
+  </si>
+  <si>
+    <t>57.3mm</t>
+  </si>
+  <si>
+    <t>samsung-mu-pa1t0b-ww-original-1.jpeg</t>
+  </si>
+  <si>
+    <t>samsung-mu-pa1t0b-ww-original-2.jpeg</t>
+  </si>
+  <si>
+    <t>samsung-mu-pa1t0b-ww-original-3.jpeg</t>
+  </si>
+  <si>
+    <t>samsung-mu-pa1t0b-ww-original-4.jpeg</t>
+  </si>
+  <si>
+    <t>samsung-mu-pa1t0b-ww-original-5.jpeg</t>
+  </si>
+  <si>
+    <t>Zebronics 100HB High Speed 4 Port USB Hub  (Black)</t>
+  </si>
+  <si>
+    <t>1 x USB hub</t>
+  </si>
+  <si>
+    <t>W x H X D</t>
+  </si>
+  <si>
+    <t>37 cm</t>
+  </si>
+  <si>
+    <t>power cord length</t>
+  </si>
+  <si>
+    <t>1.62 m</t>
+  </si>
+  <si>
+    <t>Hub</t>
+  </si>
+  <si>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>4-port-zebronics-original-1.jpeg</t>
+  </si>
+  <si>
+    <t>100hb-zebronics-original-2.jpeg</t>
+  </si>
+  <si>
+    <t>100hb-zebronics-original-3.jpeg</t>
+  </si>
+  <si>
+    <t>Quantum Hi-Tech QHM 7403/222/6660 Wired USB Mouse, Keyboard &amp; USB 4 Port Hub Combo Set</t>
+  </si>
+  <si>
+    <t>Keyboard, Mouse, USB 4 Port Hub</t>
+  </si>
+  <si>
+    <t>Quantum Hi-Tech</t>
+  </si>
+  <si>
+    <t>QHM 7403/222/6660 Wired USB Mouse, Keyboard &amp; USB 4 Port Hub</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Suitable for</t>
+  </si>
+  <si>
+    <t>Can be used with both desktop &amp; laptop</t>
+  </si>
+  <si>
+    <t>qhm-7403-222-6660-wired-usb-mouse-keyboard-usb-4-port-hub-3-original-1.jpeg</t>
+  </si>
+  <si>
+    <t>qhm-7403-wired-keyboard-qhm-222-wired-mouse-and-qhm-6660-white-4-original-2.jpeg</t>
+  </si>
+  <si>
+    <t>qhm-7403-wired-keyboard-qhm-222-wired-mouse-and-qhm-6633-white-4-original-3.jpeg</t>
+  </si>
+  <si>
+    <t>qhm-7403-wire-keyboard-qhm-262-wireless-mouse-and-qhm-6660-4-original-4.jpeg</t>
+  </si>
+  <si>
+    <t>qhm-7403-wire-keyboard-qhm-262-wireless-mouse-and-qhm-6660-4-original-5.jpeg</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Portronics POR-373 Key2 Wireless Keyboard &amp; Mouse Combo Wireless Laptop Keyboard  (White, Blue)</t>
+  </si>
+  <si>
+    <t>POR-373 Key2 Wireless Keyboard &amp; Mouse Combo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Laptop Keyboard</t>
+  </si>
+  <si>
+    <t>Sales package</t>
+  </si>
+  <si>
+    <t>1 Keyboard</t>
+  </si>
+  <si>
+    <t>portronics-por-373-key2-wireless-keyboard-mouse-combo-original-1.jpeg</t>
+  </si>
+  <si>
+    <t>portronics-por-373-key2-wireless-keyboard-mouse-combo-original-2.jpeg</t>
+  </si>
+  <si>
+    <t>portronics-por-373-key2-wireless-keyboard-mouse-combo-original-3.jpeg</t>
+  </si>
+  <si>
+    <t>Asus VivoBook 15 Ryzen 3 Dual Core 3250U - (4 GB/1 TB HDD/Windows 10 Home) M509DA-EJ741T Laptop  (15.6 inch, Slate Grey, 1.9 kg)</t>
+  </si>
+  <si>
+    <t>Fast and Efficient</t>
+  </si>
+  <si>
+    <t>This ASUS laptop is powered by the AMD Ryzen 3 3250U processor, an integrated AMD Radeon Vega 3 graphics, and 4 GB of DDR4 RAM to deliver efficient, seamless, and fast performance</t>
+  </si>
+  <si>
+    <t>The 1 TB HDD lets you store a large number of files, including music, videos, documents, etc.</t>
+  </si>
+  <si>
+    <t>Large Storage Space</t>
+  </si>
+  <si>
+    <t>NanoEdge Display</t>
+  </si>
+  <si>
+    <t>The NanoEdge display offers an immersive visual experience. Furthermore, the FHD panel with an anti-glaring coating and a 82.5% screen-to-body ration lets you work or play without distractions.</t>
+  </si>
+  <si>
+    <t>Stylish &amp; Portable</t>
+  </si>
+  <si>
+    <t>This is a lightweight laptop that weighs about 1.9 kg. Also, the sleek body makes it a stylish device to carry along with you.</t>
+  </si>
+  <si>
+    <t>Laptop, Power Adaptor, User Guide, Warranty Documents</t>
+  </si>
+  <si>
+    <t>Model Number</t>
+  </si>
+  <si>
+    <t>M509DA-EJ741T</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>Slate Grey</t>
+  </si>
+  <si>
+    <t>Suitable For</t>
+  </si>
+  <si>
+    <t>Processing And Multitasking</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>45 W AC Adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Cell  </t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Ryzen 3 Dual Core</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>RAM Type</t>
+  </si>
+  <si>
+    <t>DDR4</t>
+  </si>
+  <si>
+    <t>HDD Capacity</t>
+  </si>
+  <si>
+    <t>Processor Name</t>
+  </si>
+  <si>
+    <t>Processor Brand</t>
+  </si>
+  <si>
+    <t>Processor Varient</t>
+  </si>
+  <si>
+    <t>3250U</t>
+  </si>
+  <si>
+    <t>Clock speed</t>
+  </si>
+  <si>
+    <t>2.6 GHz with Turbo Boost Upto 3.5 GHz</t>
+  </si>
+  <si>
+    <t>RAM Frequency</t>
+  </si>
+  <si>
+    <t>2400 MHz</t>
+  </si>
+  <si>
+    <t>Graphics Processor</t>
+  </si>
+  <si>
+    <t>AMD Radeon</t>
+  </si>
+  <si>
+    <t>System Architecture</t>
+  </si>
+  <si>
+    <t>64 bit</t>
+  </si>
+  <si>
+    <t>Pre-installed Genuine Windows 10 OS</t>
+  </si>
+  <si>
+    <t>Light Laptop without Optical Disk Drive</t>
+  </si>
+  <si>
+    <t>15.6 inch Full HD LED Backlit Anti-glare Display (200 nits Brightness, 45% NTSC, 83% Screen-to-body Ratio)</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>asus-na-laptop-original-1.jpeg</t>
+  </si>
+  <si>
+    <t>asus-na-laptop-original-2.jpeg</t>
+  </si>
+  <si>
+    <t>asus-na-laptop-original-3.jpeg</t>
+  </si>
+  <si>
+    <t>asus-na-laptop-original-4.jpeg</t>
+  </si>
+  <si>
+    <t>asus-na-laptop-original-5.jpeg</t>
   </si>
 </sst>
 </file>
@@ -259,38 +628,38 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF111111"/>
+      <sz val="12"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0F1111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="3"/>
+      <color rgb="FF212121"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF212121"/>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -316,9 +685,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,16 +699,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,393 +1020,1038 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" style="3" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19" style="2" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="36.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>4999</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3">
+      <c r="H2" s="4"/>
+      <c r="I2" s="2">
         <v>100</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D3" s="3" t="s">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="J3" s="3">
+      <c r="H3" s="4"/>
+      <c r="J3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="D5" s="3" t="s">
+      <c r="A5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="D6" s="3" t="s">
+      <c r="A6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="5"/>
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="228" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="240" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>3999</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="199.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:15" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>11999</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>100</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>3</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>3</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="3" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="3" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="3" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="2">
+        <v>28599</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="2">
+        <v>50</v>
+      </c>
+      <c r="J24" s="2">
+        <v>4</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="2">
+        <v>4</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="2">
+        <v>399</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="2">
+        <v>849</v>
+      </c>
+      <c r="I42" s="2">
+        <v>200</v>
+      </c>
+      <c r="J42" s="2">
+        <v>6</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="D43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J43" s="2">
+        <v>6</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J44" s="2">
+        <v>6</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J45" s="2">
+        <v>6</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="D46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F48" s="2">
+        <v>1499</v>
+      </c>
+      <c r="I48" s="2">
+        <v>100</v>
+      </c>
+      <c r="J48" s="2">
+        <v>7</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="D49" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J49" s="2">
+        <v>7</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D50" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J50" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="2">
+        <v>30211</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I52" s="2">
+        <v>10</v>
+      </c>
+      <c r="J52" s="2">
+        <v>8</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="2">
+        <v>8</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="2">
+        <v>8</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="2">
+        <v>8</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J56" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D58" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D59" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D60" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J61" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D62" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J62" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D63" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J64" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="4:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D66" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J66" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J67" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" s="2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel-files/product data.xlsx
+++ b/public/excel-files/product data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F58A8FF-2495-4298-9258-8708335954D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16725" windowHeight="8235"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="product data" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="189">
   <si>
     <t>name</t>
   </si>
@@ -68,9 +63,6 @@
     <t>extraImage</t>
   </si>
   <si>
-    <t>subCategoryName</t>
-  </si>
-  <si>
     <t>categoryName</t>
   </si>
   <si>
@@ -149,9 +141,6 @@
     <t>storage</t>
   </si>
   <si>
-    <t>internal hard drive</t>
-  </si>
-  <si>
     <t>Seagate Backup Plus Portable 4 TB External Hard Drive HDD - Black USB 3.0 for PC Laptop and Mac, 1 year Mylio Create, 4 Months Adobe CC Photography, and 3-year Rescue Services (STHP4000400)  (Black)</t>
   </si>
   <si>
@@ -227,9 +216,6 @@
     <t>Lite Weight</t>
   </si>
   <si>
-    <t>external hard drive</t>
-  </si>
-  <si>
     <t>seagate-sthp4000400-1.jpeg</t>
   </si>
   <si>
@@ -374,9 +360,6 @@
     <t>1.62 m</t>
   </si>
   <si>
-    <t>Hub</t>
-  </si>
-  <si>
     <t>USB Hub</t>
   </si>
   <si>
@@ -606,12 +589,15 @@
   </si>
   <si>
     <t>asus-na-laptop-original-5.jpeg</t>
+  </si>
+  <si>
+    <t>discount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1019,11 +1005,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,22 +1068,22 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F2" s="2">
         <v>4999</v>
@@ -1110,21 +1096,21 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="N2" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="4"/>
       <c r="J3" s="2">
@@ -1133,10 +1119,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -1145,10 +1131,10 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
@@ -1157,10 +1143,10 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="J6" s="2">
         <v>1</v>
@@ -1169,10 +1155,10 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="J7" s="2">
         <v>1</v>
@@ -1186,19 +1172,19 @@
     </row>
     <row r="9" spans="1:15" ht="240" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F9" s="2">
         <v>3999</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="2">
         <v>100</v>
@@ -1207,21 +1193,21 @@
         <v>2</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>39</v>
+      <c r="N9" s="2">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="J10" s="2">
         <v>2</v>
@@ -1229,10 +1215,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2">
         <v>2</v>
@@ -1240,10 +1226,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -1251,10 +1237,10 @@
     </row>
     <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="J13" s="2">
         <v>2</v>
@@ -1262,10 +1248,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="J14" s="2">
         <v>2</v>
@@ -1273,25 +1259,25 @@
     </row>
     <row r="16" spans="1:15" ht="255" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2">
         <v>11999</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I16" s="2">
         <v>100</v>
@@ -1300,56 +1286,56 @@
         <v>3</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="N16" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J17" s="2">
         <v>3</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J18" s="2">
         <v>3</v>
@@ -1357,19 +1343,19 @@
     </row>
     <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
@@ -1377,10 +1363,10 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D20" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -1388,10 +1374,10 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J21" s="2">
         <v>3</v>
@@ -1399,10 +1385,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -1410,25 +1396,25 @@
     </row>
     <row r="24" spans="1:14" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F24" s="2">
         <v>28599</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I24" s="2">
         <v>50</v>
@@ -1437,90 +1423,90 @@
         <v>4</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>65</v>
+        <v>37</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J25" s="2">
         <v>4</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J26" s="2">
         <v>4</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J27" s="2">
         <v>4</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J28" s="2">
         <v>4</v>
@@ -1528,10 +1514,10 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J29" s="2">
         <v>4</v>
@@ -1539,10 +1525,10 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J30" s="2">
         <v>4</v>
@@ -1550,10 +1536,10 @@
     </row>
     <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D31" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J31" s="2">
         <v>4</v>
@@ -1561,10 +1547,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J32" s="2">
         <v>4</v>
@@ -1572,10 +1558,10 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J33" s="2">
         <v>4</v>
@@ -1583,37 +1569,37 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F38" s="2">
         <v>399</v>
@@ -1625,38 +1611,38 @@
         <v>5</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
+      </c>
+      <c r="N38" s="2">
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D39" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J39" s="2">
         <v>5</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D40" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J40" s="2">
         <v>5</v>
@@ -1664,13 +1650,13 @@
     </row>
     <row r="42" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F42" s="2">
         <v>849</v>
@@ -1682,66 +1668,66 @@
         <v>6</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="M42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>132</v>
+      <c r="N42" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="D43" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J43" s="2">
         <v>6</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J44" s="2">
         <v>6</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="D45" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J45" s="2">
         <v>6</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="D46" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="J46" s="2">
         <v>6</v>
@@ -1749,13 +1735,13 @@
     </row>
     <row r="48" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F48" s="2">
         <v>1499</v>
@@ -1767,38 +1753,38 @@
         <v>7</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+      <c r="N48" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="D49" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J49" s="2">
         <v>7</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D50" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J50" s="2">
         <v>7</v>
@@ -1806,25 +1792,25 @@
     </row>
     <row r="52" spans="1:14" ht="165" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F52" s="2">
         <v>30211</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I52" s="2">
         <v>10</v>
@@ -1833,90 +1819,90 @@
         <v>8</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J53" s="2">
         <v>8</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="N53" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J54" s="2">
         <v>8</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J55" s="2">
         <v>8</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D56" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J56" s="2">
         <v>8</v>
@@ -1924,10 +1910,10 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D57" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J57" s="2">
         <v>8</v>
@@ -1935,10 +1921,10 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D58" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J58" s="2">
         <v>8</v>
@@ -1946,10 +1932,10 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J59" s="2">
         <v>8</v>
@@ -1957,10 +1943,10 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D60" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J60" s="2">
         <v>8</v>
@@ -1968,10 +1954,10 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D61" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J61" s="2">
         <v>8</v>
@@ -1979,10 +1965,10 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D62" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J62" s="2">
         <v>8</v>
@@ -1990,10 +1976,10 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D63" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J63" s="2">
         <v>8</v>
@@ -2001,10 +1987,10 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D64" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J64" s="2">
         <v>8</v>
@@ -2012,10 +1998,10 @@
     </row>
     <row r="65" spans="4:10" ht="30" x14ac:dyDescent="0.25">
       <c r="D65" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J65" s="2">
         <v>8</v>
@@ -2023,10 +2009,10 @@
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D66" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J66" s="2">
         <v>8</v>
@@ -2034,10 +2020,10 @@
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D67" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J67" s="2">
         <v>8</v>
@@ -2045,10 +2031,10 @@
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="J68" s="2">
         <v>8</v>
